--- a/Documentatie/Cheery Project Planner.xlsx
+++ b/Documentatie/Cheery Project Planner.xlsx
@@ -19,6 +19,7 @@
     <definedName name="PeriodInActual">project!A$12=MEDIAN(project!A$12,project!$E1,project!$E1+project!$F1-1)</definedName>
     <definedName name="PeriodInPlan">project!A$12=MEDIAN(project!A$12,project!$C1,project!$C1+project!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(project!$C1&gt;0)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">project!$B$2:$DE$28</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -550,7 +551,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -1166,119 +1167,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1303,8 +1191,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="53"/>
-      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1328,7 +1216,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="60"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1615,8 +1503,8 @@
   </sheetPr>
   <dimension ref="B2:DE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1624,32 +1512,12 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="28" width="4.875" style="1" customWidth="1"/>
-    <col min="29" max="58" width="4.875" customWidth="1"/>
-    <col min="59" max="59" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="79" max="109" width="4.75" customWidth="1"/>
+    <col min="9" max="28" width="5.875" style="1" customWidth="1"/>
+    <col min="29" max="109" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:109" ht="15" x14ac:dyDescent="0.25">
@@ -1677,7 +1545,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -1743,7 +1611,7 @@
       </c>
       <c r="C6" s="25">
         <f ca="1">NOW()</f>
-        <v>42339.923311226848</v>
+        <v>42348.944812268521</v>
       </c>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
@@ -1760,7 +1628,7 @@
       </c>
       <c r="C8" s="26">
         <f ca="1">E5-C6</f>
-        <v>13.076688773151545</v>
+        <v>4.0551877314792364</v>
       </c>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -1772,7 +1640,7 @@
       </c>
       <c r="C9" s="26">
         <f ca="1">C6-C5</f>
-        <v>52.923311226848455</v>
+        <v>61.944812268520764</v>
       </c>
       <c r="I9" s="29">
         <f>C5</f>
@@ -2620,7 +2488,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="17">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="2:109" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2643,11 +2511,11 @@
         <v>20</v>
       </c>
       <c r="E22" s="16">
-        <f>C22</f>
+        <f t="shared" ref="E22:F25" si="4">C22</f>
         <v>33</v>
       </c>
       <c r="F22" s="16">
-        <f>D22</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="G22" s="17">
@@ -2667,11 +2535,11 @@
         <v>15</v>
       </c>
       <c r="E23" s="16">
-        <f>C23</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="F23" s="16">
-        <f>D23</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G23" s="17">
@@ -2690,15 +2558,15 @@
         <v>30</v>
       </c>
       <c r="E24" s="16">
-        <f>C24</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="F24" s="16">
-        <f>D24</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="G24" s="17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="2:109" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2714,11 +2582,11 @@
         <v>83</v>
       </c>
       <c r="E25" s="16">
-        <f>C25</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="F25" s="16">
-        <f>D25</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="G25" s="17">
@@ -2752,7 +2620,7 @@
         <v>67</v>
       </c>
       <c r="G27" s="17">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="28" spans="2:109" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4928,7 +4796,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
